--- a/HW/Partes_final.xlsx
+++ b/HW/Partes_final.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="270">
   <si>
     <t xml:space="preserve">Referencia</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total price</t>
+  </si>
+  <si>
     <t xml:space="preserve">&gt;  C3, C8, C9, C12, C22, C44</t>
   </si>
   <si>
@@ -355,7 +361,7 @@
     <t xml:space="preserve">https://www.murata.com/en-us/products/en-us/products/productdata/8796738977822/ENFA0005.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">BLM21PG221SN1D</t>
+    <t xml:space="preserve">490-1054-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">    FB2</t>
@@ -538,7 +544,7 @@
     <t xml:space="preserve">1.8k</t>
   </si>
   <si>
-    <t xml:space="preserve">311-1.8KGRTR-ND</t>
+    <t xml:space="preserve">311-1.8KGRCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">    R6</t>
@@ -580,7 +586,7 @@
     <t xml:space="preserve">1k</t>
   </si>
   <si>
-    <t xml:space="preserve"> 311-1.00KHRCT-ND</t>
+    <t xml:space="preserve">311-1.00KHRCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;  R21-R23</t>
@@ -598,7 +604,7 @@
     <t xml:space="preserve">    R58</t>
   </si>
   <si>
-    <t xml:space="preserve"> 311-100HRCT-ND</t>
+    <t xml:space="preserve">311-100HRCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;  R64, R65</t>
@@ -812,16 +818,29 @@
   </si>
   <si>
     <t xml:space="preserve">1276-6456-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-240A]#,##0.00;[RED]\([$$-240A]#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -842,16 +861,118 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -859,8 +980,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -884,21 +1020,127 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -907,10 +1149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,1301 +1185,1800 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G2" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">+G2*F2</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">+G3*F3</f>
+        <v>0.58</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G4" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">+G4*F4</f>
+        <v>0.66</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="G5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">+G5*F5</f>
+        <v>3.6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">+G6*F6</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">+G7*F7</f>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">+G8*F8</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">+G9*F9</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">+G10*F10</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">+G11*F11</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">+G12*F12</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">+G13*F13</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">+G14*F14</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">+G15*F15</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">+G16*F16</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">+G17*F17</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">+G18*F18</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">+G19*F19</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">+G20*F20</f>
+        <v>2.38</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G21" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">+G21*F21</f>
+        <v>0.39</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G22" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">+G22*F22</f>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G23" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">+G23*F23</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">+G24*F24</f>
+        <v>0.31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">+G25*F25</f>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">+G26*F26</f>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">+G27*F27</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">+G28*F28</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">+G29*F29</f>
+        <v>0.89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">+G30*F30</f>
+        <v>0.89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">+G31*F31</f>
+        <v>0.72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">+G32*F32</f>
+        <v>0.42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">+G33*F33</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">+G34*F34</f>
+        <v>0.44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">+G35*F35</f>
+        <v>0.13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G36" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">+G36*F36</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="D37" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">+G37*F37</f>
+        <v>0.17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G38" s="1" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">+G38*F38</f>
+        <v>3.48</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">+G39*F39</f>
+        <v>0.51</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G40" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">+G40*F40</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>470</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="G41" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">+G41*F41</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G42" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">+G42*F42</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">+G43*F43</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>750</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <f aca="false">+G44*F44</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G45" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <f aca="false">+G45*F45</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G46" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <f aca="false">+G46*F46</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G47" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">+G47*F47</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G48" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">+G48*F48</f>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>200</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="G49" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">+G49*F49</f>
+        <v>2.3</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">+G50*F50</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G51" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">+G51*F51</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G52" s="1" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">+G52*F52</f>
+        <v>0.96</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G53" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">+G53*F53</f>
+        <v>2.43</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G54" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">+G54*F54</f>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <f aca="false">+G55*F55</f>
+        <v>10.65</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">+G56*F56</f>
+        <v>2.42</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <f aca="false">+G57*F57</f>
+        <v>11.21</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <f aca="false">+G58*F58</f>
+        <v>16.52</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="D59" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <f aca="false">+G59*F59</f>
+        <v>10.74</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G60" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <f aca="false">+G60*F60</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="E61" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <f aca="false">+G61*F61</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <f aca="false">+G62*F62</f>
+        <v>0.74</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <f aca="false">+G63*F63</f>
+        <v>3.3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">+G64*F64</f>
+        <v>0.68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <f aca="false">+G65*F65</f>
+        <v>0.73</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G66" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <f aca="false">+G66*F66</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G67" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <f aca="false">+G67*F67</f>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <f aca="false">SUM(H2:H67)</f>
+        <v>98.4</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>3288</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="n">
+        <f aca="false">+H68*H69</f>
+        <v>323539.2</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>